--- a/biology/Médecine/Hyperactivité_vésicale/Hyperactivité_vésicale.xlsx
+++ b/biology/Médecine/Hyperactivité_vésicale/Hyperactivité_vésicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyperactivit%C3%A9_v%C3%A9sicale</t>
+          <t>Hyperactivité_vésicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L' hyperactivité vésicale (ou vessie hyperactive, VH) est un symptôme urologique affectant la miction. Elle se caractérise par une sensation de miction impérieuse (sensation « d'urgence »), avec ou sans incontinence urinaire, associée à une pollakiurie diurne (&gt; 8 épisodes) et à une nycturie (&gt; 1 épisode)[1].
-Ce symptôme affecte la qualité de vie des patients, à la fois physiologiquement et psychologiquement. Elle dérange les activités quotidiennes, elle affecte la qualité du sommeil, elle peut abaisser l’estime de soi, ainsi que le profil psychologique et sexuel des patients[1].
-Les médicaments parasympatholytiques ou anticholinergiques sont indiqués pour l'hyperactivité vésicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L' hyperactivité vésicale (ou vessie hyperactive, VH) est un symptôme urologique affectant la miction. Elle se caractérise par une sensation de miction impérieuse (sensation « d'urgence »), avec ou sans incontinence urinaire, associée à une pollakiurie diurne (&gt; 8 épisodes) et à une nycturie (&gt; 1 épisode).
+Ce symptôme affecte la qualité de vie des patients, à la fois physiologiquement et psychologiquement. Elle dérange les activités quotidiennes, elle affecte la qualité du sommeil, elle peut abaisser l’estime de soi, ainsi que le profil psychologique et sexuel des patients.
+Les médicaments parasympatholytiques ou anticholinergiques sont indiqués pour l'hyperactivité vésicale.
 </t>
         </is>
       </c>
